--- a/Race Dashboard data/OEE.xlsx
+++ b/Race Dashboard data/OEE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanofi.sharepoint.com/sites/SanofixMcLarensharing/Shared Documents/General/Race Dashboard data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C51774-AB02-47C6-95C3-A6D4EAFC5B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB4B40B-166D-4A92-BE6E-1A8E03979DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13965" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0.40668642476397487</v>
+        <v>0.40668642476397471</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>0.39459228942764307</v>
+        <v>0.39459228942764302</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.22941353849822271</v>
+        <v>0.2294135384982228</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>0.27108225496771882</v>
+        <v>0.27108225496771871</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.35088101337887839</v>
+        <v>0.3508810133788785</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.39450368713367928</v>
+        <v>0.39450368713367923</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>0.39120362080970861</v>
+        <v>0.3912036208097085</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0.3651540843409023</v>
+        <v>0.36515408434090241</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>0.66443290287584122</v>
+        <v>0.664432902875841</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.33072839500391221</v>
+        <v>0.3307283950039121</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>0.36804804804804808</v>
+        <v>0.36804804804804803</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>0.41060294941198422</v>
+        <v>0.41060294941198427</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.52233987061022735</v>
+        <v>0.52233987061022746</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>0.43233206032119081</v>
+        <v>0.4323320603211907</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>0.30342182497331899</v>
+        <v>0.3034218249733191</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>0.62568911076975608</v>
+        <v>0.62568911076975586</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>0.27902761172786811</v>
+        <v>0.27902761172786789</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>0.31711349862382598</v>
+        <v>0.31711349862382621</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>0.30942479674796752</v>
+        <v>0.30942479674796758</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>0.33527721433400931</v>
+        <v>0.33527721433400942</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>0.50745155423280441</v>
+        <v>0.5074515542328043</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>0.55114830836102224</v>
+        <v>0.55114830836102235</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>0.54218528603484351</v>
+        <v>0.54218528603484362</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>0.48913762875301331</v>
+        <v>0.4891376287530132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>0.41411018009004491</v>
+        <v>0.41411018009004502</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>0.61152998236331602</v>
+        <v>0.61152998236331568</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="C67">
-        <v>0.28809214809214789</v>
+        <v>0.28809214809214811</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0.40994020926756358</v>
+        <v>0.40994020926756353</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>0.62607894736842107</v>
+        <v>0.62607894736842096</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>0.2514230195237776</v>
+        <v>0.25142301952377749</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>0.24843081550802129</v>
+        <v>0.24843081550802151</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>0.57320015147636105</v>
+        <v>0.57320015147636116</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <v>0.27717035217035207</v>
+        <v>0.27717035217035219</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>0.43968497645883881</v>
+        <v>0.43968497645883858</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>0.42653450822264111</v>
+        <v>0.42653450822264088</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <v>0.44474668648581678</v>
+        <v>0.44474668648581689</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>0.44669534412955447</v>
+        <v>0.44669534412955458</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.2638193384223918</v>
+        <v>0.26381933842239169</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>0.62119442310974582</v>
+        <v>0.62119442310974593</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>0.58284722222222218</v>
+        <v>0.58284722222222252</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="C89">
-        <v>0.64191623826816968</v>
+        <v>0.64191623826816946</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>0.45292488750432669</v>
+        <v>0.45292488750432658</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>0.6673756898219263</v>
+        <v>0.66737568982192652</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="C98">
-        <v>0.60891782407407424</v>
+        <v>0.60891782407407413</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="C100">
-        <v>0.50595416525649062</v>
+        <v>0.50595416525649073</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>0.36260669899993458</v>
+        <v>0.36260669899993447</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>0.47772462364979018</v>
+        <v>0.47772462364979029</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>0.74495078796154091</v>
+        <v>0.74495078796154113</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0.40593581951407642</v>
+        <v>0.40593581951407648</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>0.44355946268712843</v>
+        <v>0.4435594626871287</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>0.38930976430976427</v>
+        <v>0.38930976430976422</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>0.46033435606954598</v>
+        <v>0.4603343560695457</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>0.46334743923611121</v>
+        <v>0.46334743923611099</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>0.44912248749388822</v>
+        <v>0.44912248749388811</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>0.4242309137489324</v>
+        <v>0.42423091374893263</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>0.43208534621578082</v>
+        <v>0.43208534621578099</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>0.3797029458283907</v>
+        <v>0.37970294582839048</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>0.65759039789308849</v>
+        <v>0.65759039789308837</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>0.60690542328042352</v>
+        <v>0.60690542328042341</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <v>0.61249727223131489</v>
+        <v>0.61249727223131456</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0.51387144890407077</v>
+        <v>0.51387144890407066</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>0.34916828525518873</v>
+        <v>0.34916828525518862</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>0.70841699933466407</v>
+        <v>0.70841699933466418</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="C142">
-        <v>0.59654956753160349</v>
+        <v>0.5965495675316036</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>14</v>
       </c>
       <c r="C143">
-        <v>0.27950708054450191</v>
+        <v>0.27950708054450168</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2161,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="C144">
-        <v>0.60404618585127468</v>
+        <v>0.60404618585127445</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>30</v>
       </c>
       <c r="C146">
-        <v>0.36789683950617291</v>
+        <v>0.36789683950617269</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.37184497117232551</v>
+        <v>0.3718449711723254</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <v>0.43118633956492242</v>
+        <v>0.43118633956492253</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="C150">
-        <v>0.58130370370370354</v>
+        <v>0.58130370370370399</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <v>0.4659226868732908</v>
+        <v>0.46592268687329069</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>0.39373982912937339</v>
+        <v>0.39373982912937361</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>13</v>
       </c>
       <c r="C155">
-        <v>0.64933564814814837</v>
+        <v>0.64933564814814826</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="C156">
-        <v>0.43243163051250771</v>
+        <v>0.43243163051250783</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="C159">
-        <v>0.36068101851851858</v>
+        <v>0.36068101851851853</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="C160">
-        <v>0.53070732740364235</v>
+        <v>0.53070732740364246</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>0.38969046508010591</v>
+        <v>0.3896904650801058</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>14</v>
       </c>
       <c r="C169">
-        <v>0.5185936459955085</v>
+        <v>0.51859364599550861</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="C170">
-        <v>0.51518666017990333</v>
+        <v>0.51518666017990344</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>29</v>
       </c>
       <c r="C171">
-        <v>0.44974539514928719</v>
+        <v>0.44974539514928707</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C174">
-        <v>0.44457739791073142</v>
+        <v>0.4445773979107312</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="C176">
-        <v>0.45151544652128761</v>
+        <v>0.45151544652128772</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>0.1878452054794521</v>
+        <v>0.18784520547945199</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>0.38672312731661063</v>
+        <v>0.38672312731661068</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="C181">
-        <v>0.52051124338624355</v>
+        <v>0.52051124338624366</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="C185">
-        <v>0.30954480246913579</v>
+        <v>0.30954480246913602</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>0.4062189529996178</v>
+        <v>0.40621895299961791</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>0.3575585052843484</v>
+        <v>0.35755850528434829</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="C194">
-        <v>0.7037027116402117</v>
+        <v>0.70370271164021192</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>14</v>
       </c>
       <c r="C195">
-        <v>0.40397368993259408</v>
+        <v>0.40397368993259403</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <v>0.50112964942884464</v>
+        <v>0.50112964942884453</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="C198">
-        <v>0.35233851234567898</v>
+        <v>0.35233851234567892</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>0.4182284569138276</v>
+        <v>0.41822845691382737</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="C202">
-        <v>0.53311965811965811</v>
+        <v>0.533119658119658</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="C203">
-        <v>0.4800136467329314</v>
+        <v>0.48001364673293151</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="C207">
-        <v>0.57902619100955799</v>
+        <v>0.5790261910095581</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="C208">
-        <v>0.70764252645502668</v>
+        <v>0.70764252645502657</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="C211">
-        <v>0.52153404938850345</v>
+        <v>0.52153404938850356</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>29</v>
       </c>
       <c r="C212">
-        <v>0.44361140167364033</v>
+        <v>0.4436114016736401</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="C213">
-        <v>0.42833166512345677</v>
+        <v>0.42833166512345688</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>0.48969329346433171</v>
+        <v>0.48969329346433149</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>0.50776501366076965</v>
+        <v>0.50776501366076987</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="C217">
-        <v>0.50914110005527913</v>
+        <v>0.50914110005527924</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>0.35601721439749617</v>
+        <v>0.35601721439749612</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>0.56269560185185186</v>
+        <v>0.56269560185185208</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>0.76917243333559859</v>
+        <v>0.7691724333355987</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>36</v>
       </c>
       <c r="C224">
-        <v>0.73582720543883573</v>
+        <v>0.73582720543883606</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>14</v>
       </c>
       <c r="C225">
-        <v>0.54045899589070456</v>
+        <v>0.54045899589070445</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="C226">
-        <v>0.55584842823491187</v>
+        <v>0.55584842823491176</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>29</v>
       </c>
       <c r="C227">
-        <v>0.50756482982171791</v>
+        <v>0.5075648298217178</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
       <c r="C231">
-        <v>0.47927599099993368</v>
+        <v>0.47927599099993379</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>0.5482548054383497</v>
+        <v>0.54825480543834992</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="C233">
-        <v>0.49049180327868852</v>
+        <v>0.49049180327868841</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C234">
-        <v>0.32372451790633611</v>
+        <v>0.323724517906336</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="C235">
-        <v>0.37251493100624961</v>
+        <v>0.37251493100624949</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="C237">
-        <v>0.73399409750865707</v>
+        <v>0.73399409750865685</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="C241">
-        <v>0.53170268898657358</v>
+        <v>0.53170268898657369</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="C244">
-        <v>0.36747877979027638</v>
+        <v>0.36747877979027649</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="C247">
-        <v>0.55539649608114328</v>
+        <v>0.5553964960811435</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>0.69816880671117987</v>
+        <v>0.69816880671117976</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="C253">
-        <v>0.53087382297551799</v>
+        <v>0.53087382297551811</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <v>36</v>
       </c>
       <c r="C254">
-        <v>0.43208164598301763</v>
+        <v>0.43208164598301768</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>30</v>
       </c>
       <c r="C258">
-        <v>0.34972343421902008</v>
+        <v>0.34972343421902002</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="C261">
-        <v>0.39631037644487438</v>
+        <v>0.39631037644487432</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="C262">
-        <v>0.43192694218608851</v>
+        <v>0.4319269421860884</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>0.39959687991609849</v>
+        <v>0.39959687991609838</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>0.42176706608569359</v>
+        <v>0.42176706608569348</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
         <v>36</v>
       </c>
       <c r="C269">
-        <v>0.62257956701359951</v>
+        <v>0.62257956701359918</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C273">
-        <v>0.47610890702160502</v>
+        <v>0.47610890702160469</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>0.4835802469135802</v>
+        <v>0.48358024691358009</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="C277">
-        <v>0.50457679505468378</v>
+        <v>0.50457679505468367</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="C278">
-        <v>0.515833604247941</v>
+        <v>0.51583360424794111</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>35</v>
       </c>
       <c r="C280">
-        <v>0.31480742326564021</v>
+        <v>0.31480742326564032</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>0.53704398148148158</v>
+        <v>0.53704398148148136</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>0.68584193121693149</v>
+        <v>0.6858419312169316</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3701,7 +3701,7 @@
         <v>36</v>
       </c>
       <c r="C284">
-        <v>0.69085509472606221</v>
+        <v>0.69085509472606232</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>14</v>
       </c>
       <c r="C285">
-        <v>0.37934783936665389</v>
+        <v>0.37934783936665412</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="C286">
-        <v>0.76949329359165419</v>
+        <v>0.76949329359165441</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
         <v>29</v>
       </c>
       <c r="C287">
-        <v>0.33017872340425519</v>
+        <v>0.3301787234042553</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>30</v>
       </c>
       <c r="C288">
-        <v>0.37159776225404578</v>
+        <v>0.37159776225404589</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="C291">
-        <v>0.59993892010626548</v>
+        <v>0.59993892010626537</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="C293">
-        <v>0.46622250575177798</v>
+        <v>0.46622250575177793</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>0.33507095786633467</v>
+        <v>0.33507095786633462</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>0.70069279100529114</v>
+        <v>0.70069279100529125</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="C298">
-        <v>0.66884529655556735</v>
+        <v>0.66884529655556713</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,7 +3866,7 @@
         <v>36</v>
       </c>
       <c r="C299">
-        <v>0.59416829703457608</v>
+        <v>0.59416829703457597</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>15</v>
       </c>
       <c r="C301">
-        <v>0.53520091682382842</v>
+        <v>0.53520091682382831</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
         <v>30</v>
       </c>
       <c r="C303">
-        <v>0.43536698309793942</v>
+        <v>0.43536698309793931</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="C305">
-        <v>0.54962393162393164</v>
+        <v>0.54962393162393175</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>0.60305700291309416</v>
+        <v>0.60305700291309428</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3954,7 +3954,7 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>0.54706658957309429</v>
+        <v>0.54706658957309418</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>0.53988181333739338</v>
+        <v>0.53988181333739349</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>0.35266393726451478</v>
+        <v>0.35266393726451473</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>35</v>
       </c>
       <c r="C310">
-        <v>0.36854024199356011</v>
+        <v>0.36854024199356028</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="C312">
-        <v>0.7156246735610573</v>
+        <v>0.71562467356105741</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="C313">
-        <v>0.43602593793422872</v>
+        <v>0.43602593793422889</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>36</v>
       </c>
       <c r="C314">
-        <v>0.47315911542610573</v>
+        <v>0.47315911542610589</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
         <v>14</v>
       </c>
       <c r="C315">
-        <v>0.51506791487671044</v>
+        <v>0.51506791487671033</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="C316">
-        <v>0.42041434685452422</v>
+        <v>0.42041434685452411</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>30</v>
       </c>
       <c r="C318">
-        <v>0.38662858101851849</v>
+        <v>0.38662858101851832</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>8</v>
       </c>
       <c r="C322">
-        <v>0.57705989940557822</v>
+        <v>0.57705989940557811</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>35</v>
       </c>
       <c r="C325">
-        <v>0.5666512612966712</v>
+        <v>0.56665126129667132</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>36</v>
       </c>
       <c r="C329">
-        <v>0.62496963794683802</v>
+        <v>0.6249696379468378</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="C334">
-        <v>0.18993873500733449</v>
+        <v>0.2113287250384025</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,7 +4262,7 @@
         <v>6</v>
       </c>
       <c r="C335">
-        <v>0.40662292213473322</v>
+        <v>0.40662292213473311</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="C337">
-        <v>0.47568928220255652</v>
+        <v>0.48045127716203873</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="C338">
-        <v>0.40884276400515129</v>
+        <v>0.41142576543009868</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="C339">
-        <v>0.38127333333333341</v>
+        <v>0.3812733333333333</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
         <v>13</v>
       </c>
       <c r="C343">
-        <v>0.66810962301587307</v>
+        <v>0.6681096230158734</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>14</v>
       </c>
       <c r="C345">
-        <v>0.55217756378063054</v>
+        <v>0.55217756378063043</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,8 +4415,8 @@
       <c r="B349" t="s">
         <v>4</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>5</v>
+      <c r="C349">
+        <v>0.29642648882610451</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,8 +4426,8 @@
       <c r="B350" t="s">
         <v>6</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>5</v>
+      <c r="C350">
+        <v>0.2674635655993664</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,8 +4437,8 @@
       <c r="B351" t="s">
         <v>7</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>5</v>
+      <c r="C351">
+        <v>0.49458144906466789</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,8 +4448,8 @@
       <c r="B352" t="s">
         <v>8</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>5</v>
+      <c r="C352">
+        <v>0.50886558481029154</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,8 +4459,8 @@
       <c r="B353" t="s">
         <v>9</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>5</v>
+      <c r="C353">
+        <v>0.43554476980966472</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4481,8 +4481,8 @@
       <c r="B355" t="s">
         <v>35</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>5</v>
+      <c r="C355">
+        <v>0.58300863214067278</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>0.6604106280193236</v>
+        <v>0.67147117151626523</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="C358">
-        <v>0.42277294685990341</v>
+        <v>0.59852451306021703</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,8 +4525,8 @@
       <c r="B359" t="s">
         <v>36</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>5</v>
+      <c r="C359">
+        <v>0.50201030220190168</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="C360">
-        <v>0</v>
+        <v>0.48226177526470709</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,13 +4547,13 @@
       <c r="B361" t="s">
         <v>15</v>
       </c>
-      <c r="C361">
-        <v>0</v>
+      <c r="C361" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4790,13 +4790,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04C6CE2D-4065-4115-A83C-0560EF687C75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D9BAD54-1B7D-448A-883C-1B2EC7CA6BCB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6E52F88-0C4E-4AB0-A568-801717D3517D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69719FA3-062F-474A-9C27-01650D9A4F63}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC0EDD5C-9A77-442E-A430-8EBFAD67102E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCBD8EF-B4B9-4228-8B6A-FE296D7B45E6}"/>
 </file>
--- a/Race Dashboard data/OEE.xlsx
+++ b/Race Dashboard data/OEE.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanofi.sharepoint.com/sites/SanofixMcLarensharing/Shared Documents/General/Race Dashboard data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB4B40B-166D-4A92-BE6E-1A8E03979DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13965" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="48">
   <si>
     <t>Week</t>
   </si>
@@ -161,16 +155,19 @@
   </si>
   <si>
     <t>W27-2021</t>
+  </si>
+  <si>
+    <t>W28-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,14 +235,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -292,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,27 +313,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,24 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,18 +522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -613,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -635,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -646,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -657,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -668,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -679,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -690,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -701,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -712,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -720,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.16897002305918521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1689700230591853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -734,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -742,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0.40668642476397471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4066864247639748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -753,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>0.51004357298474956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5100435729847494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -764,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.17373591603642541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1737359160364254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -775,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>0.39459228942764302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3945922894276431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -789,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -797,10 +751,10 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.2294135384982228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2294135384982227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -808,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>1.215263712225553E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.215263712225553e-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -819,10 +773,10 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>0.25482791440238239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2548279144023824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -830,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>0.27108225496771871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2710822549677188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -841,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.3508810133788785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3508810133788784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -855,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -863,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.39450368713367923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3945036871336792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -874,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>0.3912036208097085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3912036208097086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -885,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>0.44372953056768571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4437295305676857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -896,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0.36515408434090241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3651540843409024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -910,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -918,10 +872,10 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>0.664432902875841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6644329028758412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -929,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0.40845667989417989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4084566798941799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -940,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.3307283950039121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3307283950039123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -951,10 +905,10 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>0.36804804804804803</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3680480480480481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -962,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>0.41060294941198427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4106029494119843</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -976,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -984,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.52233987061022746</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5223398706102277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -998,7 +952,7 @@
         <v>0.4323320603211907</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1006,10 +960,10 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>9.9999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09999999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +974,7 @@
         <v>0.3034218249733191</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1039,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>0.62568911076975586</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6256891107697561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1050,10 +1004,10 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>0.62595419973544997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.62595419973545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1061,10 +1015,10 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>0.40785179387641329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4078517938764133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1072,10 +1026,10 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>0.39782286520818622</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3978228652081862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1083,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>0.27902761172786789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2790276117278678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1105,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>0.31711349862382621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.317113498623826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1116,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>0.30942479674796758</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3094247967479675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1127,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>8.0151220748500458E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.008015122074850046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1138,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>0.33527721433400942</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3352772143340093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1149,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>0.23078103298611111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2307810329861111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1160,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>0.54949649037631476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5494964903763148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1171,10 +1125,10 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>0.5074515542328043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5074515542328044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1182,10 +1136,10 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>0.30586336387758079</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3058633638775807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1193,10 +1147,10 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>0.55114830836102235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5511483083610222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1204,10 +1158,10 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>0.25945943637916302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2594594363791631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1226,10 +1180,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>0.54218528603484362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5421852860348435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1237,10 +1191,10 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>0.4891376287530132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4891376287530133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1248,10 +1202,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>0.41411018009004502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.414110180090045</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1259,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>0.31933342274678111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3193334227467811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1270,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>0.52956894841269853</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5295689484126985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1281,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>0.61152998236331568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6115299823633157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1292,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="C65">
-        <v>0.50723656499636893</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5072365649963689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1303,10 +1257,10 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>0.38091728091728089</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3809172809172808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1314,10 +1268,10 @@
         <v>15</v>
       </c>
       <c r="C67">
-        <v>0.28809214809214811</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2880921480921481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -1325,10 +1279,10 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0.40994020926756353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4099402092675635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1347,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>0.48937327850726542</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4893732785072653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -1358,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>0.62607894736842096</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6260789473684211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1369,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>0.25142301952377749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2514230195237776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1380,10 +1334,10 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>0.24843081550802151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2484308155080214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -1391,10 +1345,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>0.55227073153459405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5522707315345941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1402,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>0.57320015147636116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5732001514763613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -1413,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <v>0.24134800700832229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2413480070083223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1424,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <v>0.27717035217035219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2771703521703521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -1435,10 +1389,10 @@
         <v>15</v>
       </c>
       <c r="C78">
-        <v>0.47017388017388001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4701738801738801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1446,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>0.43968497645883858</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4396849764588386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -1468,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>0.42653450822264088</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4265345082226411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -1479,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <v>0.44474668648581689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4447466864858168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -1490,10 +1444,10 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>0.41256901938671048</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4125690193867105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -1501,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>0.44669534412955458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4466953441295546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -1512,10 +1466,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.26381933842239169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2638193384223919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1523,10 +1477,10 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>0.62119442310974593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6211944231097459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -1534,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>0.58284722222222252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5828472222222223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -1545,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>0.34397446129289699</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.343974461292897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -1556,10 +1510,10 @@
         <v>15</v>
       </c>
       <c r="C89">
-        <v>0.64191623826816946</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6419162382681697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -1567,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>0.41834627625716109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4183462762571609</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -1589,10 +1543,10 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>0.41112255139119402</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4111225513911941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -1600,10 +1554,10 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>0.45292488750432658</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4529248875043268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -1611,10 +1565,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>0.35833058777016341</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3583305877701634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -1622,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>0.33935099451303158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3393509945130316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1590,7 @@
         <v>0.2355034722222222</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -1644,10 +1598,10 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>0.66737568982192652</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6673756898219264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -1655,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="C98">
-        <v>0.60891782407407413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6089178240740742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -1677,10 +1631,10 @@
         <v>15</v>
       </c>
       <c r="C100">
-        <v>0.50595416525649073</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5059541652564907</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -1688,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>0.4578654228600717</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4578654228600716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -1710,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>0.36260669899993447</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3626066989999346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -1721,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>0.47772462364979029</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4777246236497902</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -1732,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>0.42552595628415302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4255259562841531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -1743,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>0.42170966043695701</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4217096604369571</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -1754,10 +1708,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>0.44527050264550277</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4452705026455027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -1765,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>0.74495078796154113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7449507879615409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -1776,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="C109">
-        <v>0.63109242724867742</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6310924272486778</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -1798,10 +1752,10 @@
         <v>15</v>
       </c>
       <c r="C111">
-        <v>0.39071180216431611</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3907118021643161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -1809,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0.40593581951407648</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4059358195140763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -1820,10 +1774,10 @@
         <v>6</v>
       </c>
       <c r="C113">
-        <v>0.31974928774928779</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3197492877492878</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -1831,10 +1785,10 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>0.4435594626871287</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4435594626871285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -1842,10 +1796,10 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>0.38930976430976422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3893097643097643</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -1853,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>0.4603343560695457</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4603343560695459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -1864,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>0.38763912671232881</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3876391267123288</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -1875,10 +1829,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>0.46334743923611099</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4633474392361111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -1886,10 +1840,10 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>0.48952427500814588</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4895242750081459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -1897,10 +1851,10 @@
         <v>13</v>
       </c>
       <c r="C120">
-        <v>0.30269878472222222</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3026987847222222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -1908,10 +1862,10 @@
         <v>14</v>
       </c>
       <c r="C121">
-        <v>0.1591351117042816</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1591351117042817</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -1919,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>0.44912248749388811</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4491224874938882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -1930,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>0.42423091374893263</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4242309137489326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -1952,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>0.30097437432427021</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3009743743242702</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -1963,10 +1917,10 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>0.43208534621578099</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.432085346215781</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -1974,10 +1928,10 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>0.38558820274457722</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3855882027445771</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -1985,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>0.37970294582839048</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3797029458283905</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -1996,10 +1950,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>0.65759039789308837</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6575903978930888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -2018,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>0.60690542328042341</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6069054232804235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -2029,10 +1983,10 @@
         <v>14</v>
       </c>
       <c r="C132">
-        <v>0.23098330241187379</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2309833024118738</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -2040,10 +1994,10 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <v>0.61249727223131456</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6124972722313149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -2051,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0.51387144890407066</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5138714489040705</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -2073,10 +2027,10 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>0.34916828525518862</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3491682852551886</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -2084,10 +2038,10 @@
         <v>8</v>
       </c>
       <c r="C137">
-        <v>0.36441066659208798</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3644106665920882</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -2095,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>0.31545991056572392</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3154599105657238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -2106,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>0.23394061203319499</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.233940612033195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -2117,10 +2071,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>0.70841699933466418</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7084169993346641</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -2139,10 +2093,10 @@
         <v>13</v>
       </c>
       <c r="C142">
-        <v>0.5965495675316036</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5965495675316034</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -2150,10 +2104,10 @@
         <v>14</v>
       </c>
       <c r="C143">
-        <v>0.27950708054450168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2795070805445018</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -2161,10 +2115,10 @@
         <v>15</v>
       </c>
       <c r="C144">
-        <v>0.60404618585127445</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6040461858512747</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -2175,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -2183,10 +2137,10 @@
         <v>30</v>
       </c>
       <c r="C146">
-        <v>0.36789683950617269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3678968395061728</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -2194,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>0.45841393743990039</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4584139374399003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -2205,10 +2159,10 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.3718449711723254</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3718449711723255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -2216,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <v>0.43118633956492253</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4311863395649226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -2227,10 +2181,10 @@
         <v>8</v>
       </c>
       <c r="C150">
-        <v>0.58130370370370399</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5813037037037037</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -2238,10 +2192,10 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <v>0.46592268687329069</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4659226868732908</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -2249,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>0.39373982912937361</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3937398291293734</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -2260,10 +2214,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>4.6123600973236013E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04612360097323601</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -2274,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -2282,10 +2236,10 @@
         <v>13</v>
       </c>
       <c r="C155">
-        <v>0.64933564814814826</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6493356481481481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -2293,10 +2247,10 @@
         <v>14</v>
       </c>
       <c r="C156">
-        <v>0.43243163051250783</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4324316305125078</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -2304,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="C157">
-        <v>0.59643236387233789</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5964323638723379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -2318,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -2326,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="C159">
-        <v>0.36068101851851853</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3606810185185186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -2337,10 +2291,10 @@
         <v>4</v>
       </c>
       <c r="C160">
-        <v>0.53070732740364246</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5307073274036425</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -2348,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>0.259070796460177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2590707964601769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -2359,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>0.3896904650801058</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3896904650801057</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -2370,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="C163">
-        <v>0.43363455227379277</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4336345522737927</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -2381,10 +2335,10 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>0.41090106038187829</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4109010603818784</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -2392,10 +2346,10 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>0.34698846908734049</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3469884690873405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -2406,7 +2360,7 @@
         <v>0.4630205294435441</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -2417,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -2425,10 +2379,10 @@
         <v>13</v>
       </c>
       <c r="C168">
-        <v>0.42731634362287629</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4273163436228763</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -2436,10 +2390,10 @@
         <v>14</v>
       </c>
       <c r="C169">
-        <v>0.51859364599550861</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5185936459955086</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -2447,10 +2401,10 @@
         <v>15</v>
       </c>
       <c r="C170">
-        <v>0.51518666017990344</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5151866601799033</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -2458,10 +2412,10 @@
         <v>29</v>
       </c>
       <c r="C171">
-        <v>0.44974539514928707</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4497453951492872</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -2469,10 +2423,10 @@
         <v>30</v>
       </c>
       <c r="C172">
-        <v>0.33414012268518523</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3341401226851852</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -2480,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>0.41067559934318548</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4106755993431856</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -2491,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="C174">
-        <v>0.4445773979107312</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4445773979107313</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -2502,10 +2456,10 @@
         <v>7</v>
       </c>
       <c r="C175">
-        <v>0.45866817337678262</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4586681733767825</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -2513,10 +2467,10 @@
         <v>8</v>
       </c>
       <c r="C176">
-        <v>0.45151544652128772</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4515154465212877</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -2524,10 +2478,10 @@
         <v>9</v>
       </c>
       <c r="C177">
-        <v>0.40139748025442079</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4013974802544208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -2535,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>0.18784520547945199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1878452054794521</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -2546,10 +2500,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>0.38672312731661068</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3867231273166107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -2568,10 +2522,10 @@
         <v>13</v>
       </c>
       <c r="C181">
-        <v>0.52051124338624366</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5205112433862437</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -2579,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="C182">
-        <v>0.63303681821093261</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6330368182109326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -2590,10 +2544,10 @@
         <v>15</v>
       </c>
       <c r="C183">
-        <v>0.65546997678433871</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6554699767843387</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -2601,10 +2555,10 @@
         <v>29</v>
       </c>
       <c r="C184">
-        <v>0.64265151515151508</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6426515151515151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -2612,10 +2566,10 @@
         <v>30</v>
       </c>
       <c r="C185">
-        <v>0.30954480246913602</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3095448024691358</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -2623,10 +2577,10 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>0.37255042016806711</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3725504201680672</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>33</v>
       </c>
@@ -2634,10 +2588,10 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>0.50944444444444448</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5094444444444445</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -2645,10 +2599,10 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>0.47181866858141819</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4718186685814182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -2656,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>0.40621895299961791</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4062189529996179</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>33</v>
       </c>
@@ -2667,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>0.35755850528434829</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3575585052843482</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -2678,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>0.29374436683190619</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2937443668319062</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -2689,10 +2643,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>0.35241989843028632</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3524198984302863</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -2711,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="C194">
-        <v>0.70370271164021192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7037027116402119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -2722,10 +2676,10 @@
         <v>14</v>
       </c>
       <c r="C195">
-        <v>0.40397368993259403</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.403973689932594</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -2733,10 +2687,10 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <v>0.50112964942884453</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5011296494288445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -2744,10 +2698,10 @@
         <v>29</v>
       </c>
       <c r="C197">
-        <v>0.50580393487109898</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5058039348710991</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -2755,10 +2709,10 @@
         <v>30</v>
       </c>
       <c r="C198">
-        <v>0.35233851234567892</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.352338512345679</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -2766,10 +2720,10 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>0.41822845691382737</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4182284569138276</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -2777,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="C200">
-        <v>0.50622605363984674</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5062260536398467</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -2788,10 +2742,10 @@
         <v>7</v>
       </c>
       <c r="C201">
-        <v>0.57795866684755581</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5779586668475557</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>34</v>
       </c>
@@ -2799,10 +2753,10 @@
         <v>8</v>
       </c>
       <c r="C202">
-        <v>0.533119658119658</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5331196581196579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>34</v>
       </c>
@@ -2810,10 +2764,10 @@
         <v>9</v>
       </c>
       <c r="C203">
-        <v>0.48001364673293151</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4800136467329313</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>34</v>
       </c>
@@ -2821,10 +2775,10 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>0.43679526748971198</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.436795267489712</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>34</v>
       </c>
@@ -2835,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>34</v>
       </c>
@@ -2843,10 +2797,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>0.53033647486772506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5303364748677251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>34</v>
       </c>
@@ -2854,10 +2808,10 @@
         <v>12</v>
       </c>
       <c r="C207">
-        <v>0.5790261910095581</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5790261910095579</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>34</v>
       </c>
@@ -2865,10 +2819,10 @@
         <v>13</v>
       </c>
       <c r="C208">
-        <v>0.70764252645502657</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7076425264550266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>34</v>
       </c>
@@ -2879,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -2890,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -2898,10 +2852,10 @@
         <v>15</v>
       </c>
       <c r="C211">
-        <v>0.52153404938850356</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5215340493885036</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -2912,7 +2866,7 @@
         <v>0.4436114016736401</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -2920,10 +2874,10 @@
         <v>30</v>
       </c>
       <c r="C213">
-        <v>0.42833166512345688</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4283316651234567</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -2931,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>0.48969329346433149</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4896932934643314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -2942,10 +2896,10 @@
         <v>6</v>
       </c>
       <c r="C215">
-        <v>0.53305413105413113</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5330541310541311</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -2953,10 +2907,10 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>0.50776501366076987</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5077650136607699</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -2964,10 +2918,10 @@
         <v>8</v>
       </c>
       <c r="C217">
-        <v>0.50914110005527924</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5091411000552791</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -2975,10 +2929,10 @@
         <v>9</v>
       </c>
       <c r="C218">
-        <v>0.49077540962621607</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4907754096262161</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>37</v>
       </c>
@@ -2986,10 +2940,10 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>0.35601721439749612</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3560172143974962</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>37</v>
       </c>
@@ -3008,10 +2962,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>0.56269560185185208</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5626956018518519</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -3019,10 +2973,10 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>0.7691724333355987</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7691724333355988</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>37</v>
       </c>
@@ -3030,10 +2984,10 @@
         <v>13</v>
       </c>
       <c r="C223">
-        <v>0.58540691137566159</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5854069113756616</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -3041,10 +2995,10 @@
         <v>36</v>
       </c>
       <c r="C224">
-        <v>0.73582720543883606</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7358272054388358</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -3052,10 +3006,10 @@
         <v>14</v>
       </c>
       <c r="C225">
-        <v>0.54045899589070445</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5404589958907045</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -3063,10 +3017,10 @@
         <v>15</v>
       </c>
       <c r="C226">
-        <v>0.55584842823491176</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5558484282349117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>38</v>
       </c>
@@ -3077,7 +3031,7 @@
         <v>0.5075648298217178</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>38</v>
       </c>
@@ -3085,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="C228">
-        <v>0.40049491743710042</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4004949174371004</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -3096,10 +3050,10 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>0.42939172464298803</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4293917246429879</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -3107,10 +3061,10 @@
         <v>6</v>
       </c>
       <c r="C230">
-        <v>0.35860873694207029</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3586087369420703</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>38</v>
       </c>
@@ -3118,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="C231">
-        <v>0.47927599099993379</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4792759909999338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>38</v>
       </c>
@@ -3129,10 +3083,10 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>0.54825480543834992</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5482548054383498</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>38</v>
       </c>
@@ -3140,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="C233">
-        <v>0.49049180327868841</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4904918032786885</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>38</v>
       </c>
@@ -3151,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="C234">
-        <v>0.323724517906336</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3237245179063361</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>38</v>
       </c>
@@ -3162,10 +3116,10 @@
         <v>35</v>
       </c>
       <c r="C235">
-        <v>0.37251493100624949</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3725149310062497</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -3173,10 +3127,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>0.69890781827786586</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6989078182778657</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>38</v>
       </c>
@@ -3184,10 +3138,10 @@
         <v>12</v>
       </c>
       <c r="C237">
-        <v>0.73399409750865685</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7339940975086569</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>38</v>
       </c>
@@ -3195,10 +3149,10 @@
         <v>13</v>
       </c>
       <c r="C238">
-        <v>0.27325101214574898</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.273251012145749</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>38</v>
       </c>
@@ -3206,10 +3160,10 @@
         <v>36</v>
       </c>
       <c r="C239">
-        <v>0.55216462668298649</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5521646266829865</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>38</v>
       </c>
@@ -3220,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -3228,10 +3182,10 @@
         <v>15</v>
       </c>
       <c r="C241">
-        <v>0.53170268898657369</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5317026889865736</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -3242,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -3250,10 +3204,10 @@
         <v>30</v>
       </c>
       <c r="C243">
-        <v>0.49929513888888888</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.499295138888889</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>39</v>
       </c>
@@ -3261,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C244">
-        <v>0.36747877979027649</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3674787797902764</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>39</v>
       </c>
@@ -3272,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="C245">
-        <v>0.4066992592592592</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4066992592592593</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -3283,10 +3237,10 @@
         <v>7</v>
       </c>
       <c r="C246">
-        <v>0.47288779467009551</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4728877946700955</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -3294,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="C247">
-        <v>0.5553964960811435</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5553964960811431</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>39</v>
       </c>
@@ -3305,10 +3259,10 @@
         <v>9</v>
       </c>
       <c r="C248">
-        <v>0.45650115919629058</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4565011591962906</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -3316,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>0.34585316493158308</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.345853164931583</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -3327,10 +3281,10 @@
         <v>35</v>
       </c>
       <c r="C250">
-        <v>0.44122149235516089</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4412214923551607</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -3341,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -3349,10 +3303,10 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>0.69816880671117976</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6981688067111799</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>39</v>
       </c>
@@ -3360,10 +3314,10 @@
         <v>13</v>
       </c>
       <c r="C253">
-        <v>0.53087382297551811</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5308738229755181</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -3371,10 +3325,10 @@
         <v>36</v>
       </c>
       <c r="C254">
-        <v>0.43208164598301768</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4320816459830177</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>39</v>
       </c>
@@ -3382,10 +3336,10 @@
         <v>14</v>
       </c>
       <c r="C255">
-        <v>0.27904070677456322</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2790407067745632</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>39</v>
       </c>
@@ -3393,10 +3347,10 @@
         <v>15</v>
       </c>
       <c r="C256">
-        <v>0.59642457057505582</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5964245705750558</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -3407,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -3415,10 +3369,10 @@
         <v>30</v>
       </c>
       <c r="C258">
-        <v>0.34972343421902002</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3497234342190201</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>40</v>
       </c>
@@ -3426,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>0.35914870404411769</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3591487040441177</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -3437,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="C260">
-        <v>0.51938034188034199</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.519380341880342</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -3448,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="C261">
-        <v>0.39631037644487432</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3963103764448743</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>40</v>
       </c>
@@ -3459,10 +3413,10 @@
         <v>8</v>
       </c>
       <c r="C262">
-        <v>0.4319269421860884</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4319269421860885</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -3470,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="C263">
-        <v>0.42365297128234292</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4236529712823429</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -3481,10 +3435,10 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>0.39959687991609838</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3995968799160987</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>40</v>
       </c>
@@ -3492,10 +3446,10 @@
         <v>35</v>
       </c>
       <c r="C265">
-        <v>0.38517444024445002</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38517444024445</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -3503,10 +3457,10 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <v>0.19195108849307321</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1919510884930732</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -3514,10 +3468,10 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>0.42176706608569348</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4217670660856937</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>40</v>
       </c>
@@ -3525,10 +3479,10 @@
         <v>13</v>
       </c>
       <c r="C268">
-        <v>0.70619163359788395</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7061916335978837</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -3536,10 +3490,10 @@
         <v>36</v>
       </c>
       <c r="C269">
-        <v>0.62257956701359918</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6225795670135996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>40</v>
       </c>
@@ -3547,10 +3501,10 @@
         <v>14</v>
       </c>
       <c r="C270">
-        <v>0.43178226289115651</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4317822628911565</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>40</v>
       </c>
@@ -3558,10 +3512,10 @@
         <v>15</v>
       </c>
       <c r="C271">
-        <v>0.51705018970711136</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5170501897071114</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -3572,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -3580,10 +3534,10 @@
         <v>30</v>
       </c>
       <c r="C273">
-        <v>0.47610890702160469</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4761089070216051</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>41</v>
       </c>
@@ -3591,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="C274">
-        <v>0.42804440649017922</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4280444064901794</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>41</v>
       </c>
@@ -3602,10 +3556,10 @@
         <v>6</v>
       </c>
       <c r="C275">
-        <v>0.51256837606837613</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5125683760683761</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -3613,10 +3567,10 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>0.48358024691358009</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4835802469135801</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>41</v>
       </c>
@@ -3624,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="C277">
-        <v>0.50457679505468367</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5045767950546839</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>41</v>
       </c>
@@ -3635,10 +3589,10 @@
         <v>9</v>
       </c>
       <c r="C278">
-        <v>0.51583360424794111</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5158336042479409</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>41</v>
       </c>
@@ -3646,10 +3600,10 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>0.35605775008559187</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3560577500855919</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>41</v>
       </c>
@@ -3657,10 +3611,10 @@
         <v>35</v>
       </c>
       <c r="C280">
-        <v>0.31480742326564032</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3148074232656402</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>41</v>
       </c>
@@ -3668,10 +3622,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>0.53704398148148136</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5370439814814815</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>41</v>
       </c>
@@ -3679,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>0.6858419312169316</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6858419312169314</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>41</v>
       </c>
@@ -3690,10 +3644,10 @@
         <v>13</v>
       </c>
       <c r="C283">
-        <v>0.71140010210407312</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7114001021040735</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -3701,10 +3655,10 @@
         <v>36</v>
       </c>
       <c r="C284">
-        <v>0.69085509472606232</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6908550947260622</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>41</v>
       </c>
@@ -3712,10 +3666,10 @@
         <v>14</v>
       </c>
       <c r="C285">
-        <v>0.37934783936665412</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.379347839366654</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -3723,10 +3677,10 @@
         <v>15</v>
       </c>
       <c r="C286">
-        <v>0.76949329359165441</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7694932935916544</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>42</v>
       </c>
@@ -3737,7 +3691,7 @@
         <v>0.3301787234042553</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>42</v>
       </c>
@@ -3745,10 +3699,10 @@
         <v>30</v>
       </c>
       <c r="C288">
-        <v>0.37159776225404589</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3715977622540457</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>42</v>
       </c>
@@ -3756,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="C289">
-        <v>0.46732815645671549</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4673281564567155</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>42</v>
       </c>
@@ -3767,10 +3721,10 @@
         <v>6</v>
       </c>
       <c r="C290">
-        <v>0.59558974358974359</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5955897435897436</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>42</v>
       </c>
@@ -3778,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="C291">
-        <v>0.59993892010626537</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5999389201062654</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>42</v>
       </c>
@@ -3789,10 +3743,10 @@
         <v>8</v>
       </c>
       <c r="C292">
-        <v>0.51524584929757333</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5152458492975734</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -3800,10 +3754,10 @@
         <v>9</v>
       </c>
       <c r="C293">
-        <v>0.46622250575177793</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4662225057517779</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -3811,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>0.33507095786633462</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3350709578663346</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>42</v>
       </c>
@@ -3822,10 +3776,10 @@
         <v>35</v>
       </c>
       <c r="C295">
-        <v>0.51870054704700375</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5187005470470037</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>42</v>
       </c>
@@ -3833,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>0.6388770497596834</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6388770497596833</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>42</v>
       </c>
@@ -3844,10 +3798,10 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>0.70069279100529125</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7006927910052911</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>42</v>
       </c>
@@ -3855,10 +3809,10 @@
         <v>13</v>
       </c>
       <c r="C298">
-        <v>0.66884529655556713</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6688452965555673</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>42</v>
       </c>
@@ -3866,10 +3820,10 @@
         <v>36</v>
       </c>
       <c r="C299">
-        <v>0.59416829703457597</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.594168297034576</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>42</v>
       </c>
@@ -3888,10 +3842,10 @@
         <v>15</v>
       </c>
       <c r="C301">
-        <v>0.53520091682382831</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5352009168238283</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>43</v>
       </c>
@@ -3899,10 +3853,10 @@
         <v>29</v>
       </c>
       <c r="C302">
-        <v>0.46652923903508758</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4665292390350878</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -3910,10 +3864,10 @@
         <v>30</v>
       </c>
       <c r="C303">
-        <v>0.43536698309793931</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4353669830979394</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>43</v>
       </c>
@@ -3921,10 +3875,10 @@
         <v>4</v>
       </c>
       <c r="C304">
-        <v>0.43456605875299759</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4345660587529976</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>43</v>
       </c>
@@ -3932,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="C305">
-        <v>0.54962393162393175</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5496239316239316</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -3943,10 +3897,10 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>0.60305700291309428</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6030570029130941</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -3954,10 +3908,10 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>0.54706658957309418</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5470665895730942</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>43</v>
       </c>
@@ -3965,10 +3919,10 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>0.53988181333739349</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5398818133373934</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>43</v>
       </c>
@@ -3976,10 +3930,10 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>0.35266393726451473</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3526639372645148</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>43</v>
       </c>
@@ -3987,10 +3941,10 @@
         <v>35</v>
       </c>
       <c r="C310">
-        <v>0.36854024199356028</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3685402419935601</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>43</v>
       </c>
@@ -3998,10 +3952,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>0.66187880291005308</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6618788029100534</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -4009,10 +3963,10 @@
         <v>12</v>
       </c>
       <c r="C312">
-        <v>0.71562467356105741</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7156246735610573</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -4020,10 +3974,10 @@
         <v>13</v>
       </c>
       <c r="C313">
-        <v>0.43602593793422889</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4360259379342289</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>43</v>
       </c>
@@ -4031,10 +3985,10 @@
         <v>36</v>
       </c>
       <c r="C314">
-        <v>0.47315911542610589</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4731591154261057</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>43</v>
       </c>
@@ -4042,10 +3996,10 @@
         <v>14</v>
       </c>
       <c r="C315">
-        <v>0.51506791487671033</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5150679148767103</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>43</v>
       </c>
@@ -4053,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="C316">
-        <v>0.42041434685452411</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4204143468545241</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -4064,10 +4018,10 @@
         <v>29</v>
       </c>
       <c r="C317">
-        <v>0.48328890343885211</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4832889034388521</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -4075,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="C318">
-        <v>0.38662858101851832</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3866285810185185</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -4089,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -4097,10 +4051,10 @@
         <v>6</v>
       </c>
       <c r="C320">
-        <v>0.48874074074074081</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4887407407407408</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -4111,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -4119,10 +4073,10 @@
         <v>8</v>
       </c>
       <c r="C322">
-        <v>0.57705989940557811</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5770598994055783</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>44</v>
       </c>
@@ -4130,10 +4084,10 @@
         <v>9</v>
       </c>
       <c r="C323">
-        <v>0.4930560836501901</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4930560836501902</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -4141,10 +4095,10 @@
         <v>10</v>
       </c>
       <c r="C324">
-        <v>0.34465364902080792</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3446536490208078</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -4152,10 +4106,10 @@
         <v>35</v>
       </c>
       <c r="C325">
-        <v>0.56665126129667132</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5666512612966712</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -4163,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="C326">
-        <v>0.62044005897697629</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6204400589769764</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -4174,10 +4128,10 @@
         <v>12</v>
       </c>
       <c r="C327">
-        <v>0.34808122895622889</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3480812289562289</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -4185,10 +4139,10 @@
         <v>13</v>
       </c>
       <c r="C328">
-        <v>0.54769146825396842</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5476914682539683</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -4196,10 +4150,10 @@
         <v>36</v>
       </c>
       <c r="C329">
-        <v>0.6249696379468378</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6249696379468381</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -4207,10 +4161,10 @@
         <v>14</v>
       </c>
       <c r="C330">
-        <v>0.37439063499010689</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3743906349901069</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -4218,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="C331">
-        <v>0.56151128831329533</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5615112883132952</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>45</v>
       </c>
@@ -4229,10 +4183,10 @@
         <v>29</v>
       </c>
       <c r="C332">
-        <v>0.46905085164157012</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4690508516415699</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>45</v>
       </c>
@@ -4240,10 +4194,10 @@
         <v>30</v>
       </c>
       <c r="C333">
-        <v>0.30833014152030602</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2682631757109052</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>45</v>
       </c>
@@ -4251,10 +4205,10 @@
         <v>4</v>
       </c>
       <c r="C334">
-        <v>0.2113287250384025</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2113287250384024</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>45</v>
       </c>
@@ -4262,10 +4216,10 @@
         <v>6</v>
       </c>
       <c r="C335">
-        <v>0.40662292213473311</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4066229221347331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>45</v>
       </c>
@@ -4273,10 +4227,10 @@
         <v>7</v>
       </c>
       <c r="C336">
-        <v>0.49188522486156389</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4918852248615638</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>45</v>
       </c>
@@ -4284,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="C337">
-        <v>0.48045127716203873</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4804512771620385</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>45</v>
       </c>
@@ -4295,10 +4249,10 @@
         <v>9</v>
       </c>
       <c r="C338">
-        <v>0.41142576543009868</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4114257654300988</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>45</v>
       </c>
@@ -4309,7 +4263,7 @@
         <v>0.3812733333333333</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>45</v>
       </c>
@@ -4317,10 +4271,10 @@
         <v>35</v>
       </c>
       <c r="C340">
-        <v>0.28403621768685461</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2840362176868546</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>45</v>
       </c>
@@ -4331,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>45</v>
       </c>
@@ -4339,10 +4293,10 @@
         <v>12</v>
       </c>
       <c r="C342">
-        <v>0.63110050890585256</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6311005089058526</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>45</v>
       </c>
@@ -4350,10 +4304,10 @@
         <v>13</v>
       </c>
       <c r="C343">
-        <v>0.6681096230158734</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6681096230158732</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>45</v>
       </c>
@@ -4361,10 +4315,10 @@
         <v>36</v>
       </c>
       <c r="C344">
-        <v>0.53224233983286906</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5322423398328691</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>45</v>
       </c>
@@ -4372,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="C345">
-        <v>0.55217756378063043</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5521775637806305</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>45</v>
       </c>
@@ -4386,29 +4340,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>46</v>
       </c>
       <c r="B347" t="s">
         <v>29</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>0.7037245696400626</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>46</v>
       </c>
       <c r="B348" t="s">
         <v>30</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>0.1582814555019728</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>46</v>
       </c>
@@ -4416,10 +4370,10 @@
         <v>4</v>
       </c>
       <c r="C349">
-        <v>0.29642648882610451</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3507515308962703</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>46</v>
       </c>
@@ -4427,10 +4381,10 @@
         <v>6</v>
       </c>
       <c r="C350">
-        <v>0.2674635655993664</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5895612535612537</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>46</v>
       </c>
@@ -4438,10 +4392,10 @@
         <v>7</v>
       </c>
       <c r="C351">
-        <v>0.49458144906466789</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4495244641101278</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>46</v>
       </c>
@@ -4449,10 +4403,10 @@
         <v>8</v>
       </c>
       <c r="C352">
-        <v>0.50886558481029154</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5405716955487596</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>46</v>
       </c>
@@ -4460,10 +4414,10 @@
         <v>9</v>
       </c>
       <c r="C353">
-        <v>0.43554476980966472</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4976556853770175</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>46</v>
       </c>
@@ -4474,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>46</v>
       </c>
@@ -4482,10 +4436,10 @@
         <v>35</v>
       </c>
       <c r="C355">
-        <v>0.58300863214067278</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4589774354829226</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>46</v>
       </c>
@@ -4493,10 +4447,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3288285383597884</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>46</v>
       </c>
@@ -4504,10 +4458,10 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>0.67147117151626523</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6056213624338626</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>46</v>
       </c>
@@ -4515,10 +4469,10 @@
         <v>13</v>
       </c>
       <c r="C358">
-        <v>0.59852451306021703</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6291483134920638</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>46</v>
       </c>
@@ -4526,10 +4480,10 @@
         <v>36</v>
       </c>
       <c r="C359">
-        <v>0.50201030220190168</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4837796610169491</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>46</v>
       </c>
@@ -4537,266 +4491,186 @@
         <v>14</v>
       </c>
       <c r="C360">
-        <v>0.48226177526470709</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5069607811543293</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>46</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="C361">
+        <v>0.4974563063564512</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>47</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>47</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364">
+        <v>0.2712635201573255</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>47</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365">
+        <v>0.4995288430022943</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>47</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366">
+        <v>0.4865874973230261</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>47</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367">
+        <v>0.3488377135918119</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>47</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368">
+        <v>0.06222920277296361</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>47</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>47</v>
+      </c>
+      <c r="B370" t="s">
+        <v>35</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>47</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371">
+        <v>0.07995169082125604</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>47</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372">
+        <v>0.4866780045351473</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>47</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373">
+        <v>0.6052129547471163</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>47</v>
+      </c>
+      <c r="B374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374">
+        <v>0.09754120148856993</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>47</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375">
+        <v>0.1957880666256044</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>47</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376">
+        <v>0.3603857915784522</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010073878C0B4B32624092A7CFEA1D661FA6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125eb5e5d7730e891d696e5bae8a7e6a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75147ae7-e8a4-4142-a6c0-11af2a39406f" xmlns:ns3="7d6416de-6a19-4689-8321-92198e7bb1df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f75228ffe6a76371275d10a4f80fac3" ns2:_="" ns3:_="">
-    <xsd:import namespace="75147ae7-e8a4-4142-a6c0-11af2a39406f"/>
-    <xsd:import namespace="7d6416de-6a19-4689-8321-92198e7bb1df"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75147ae7-e8a4-4142-a6c0-11af2a39406f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7d6416de-6a19-4689-8321-92198e7bb1df" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D9BAD54-1B7D-448A-883C-1B2EC7CA6BCB}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69719FA3-062F-474A-9C27-01650D9A4F63}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCBD8EF-B4B9-4228-8B6A-FE296D7B45E6}"/>
 </file>